--- a/REGULAR/CASUAL-REGULAR FINAL/VISITACION, DENNIS.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/VISITACION, DENNIS.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -241,6 +241,21 @@
   </si>
   <si>
     <t>8/1,2,5-9,12-16,19-23,26-30/2023</t>
+  </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>11/18,19,21,22,25,26,28,29/2023</t>
+  </si>
+  <si>
+    <t>12/4-8/2023</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/12,13,19/2023</t>
   </si>
 </sst>
 </file>
@@ -3292,10 +3307,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <pane ySplit="2445" topLeftCell="A64" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="3930" topLeftCell="A74" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3454,7 +3469,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>63.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3464,7 +3479,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4958,13 +4973,15 @@
         <v>45169</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4976,13 +4993,15 @@
         <v>45199</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4994,13 +5013,15 @@
         <v>45230</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -5012,13 +5033,15 @@
         <v>45260</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5029,7 +5052,9 @@
       <c r="A87" s="40">
         <v>45291</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
@@ -5041,7 +5066,9 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
@@ -5847,7 +5874,7 @@
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane ySplit="3240" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6017,7 +6044,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.863</v>
+        <v>120.863</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6217,7 +6244,9 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
+      <c r="A18" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
@@ -6233,10 +6262,16 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="39">
+        <v>8</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13" t="str">
@@ -6246,13 +6281,21 @@
       <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="39"/>
+      <c r="D20" s="39">
+        <v>5</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13" t="str">
@@ -6262,7 +6305,9 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
